--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N2">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q2">
-        <v>40.29607117016158</v>
+        <v>366.959825201635</v>
       </c>
       <c r="R2">
-        <v>40.29607117016158</v>
+        <v>3302.638426814715</v>
       </c>
       <c r="S2">
-        <v>0.001933106465077495</v>
+        <v>0.01028085981454773</v>
       </c>
       <c r="T2">
-        <v>0.001933106465077495</v>
+        <v>0.01028085981454773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N3">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q3">
-        <v>314.4975947803484</v>
+        <v>1351.419262409225</v>
       </c>
       <c r="R3">
-        <v>314.4975947803484</v>
+        <v>12162.77336168303</v>
       </c>
       <c r="S3">
-        <v>0.01508726076926809</v>
+        <v>0.03786177950099708</v>
       </c>
       <c r="T3">
-        <v>0.01508726076926809</v>
+        <v>0.03786177950099708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N4">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q4">
-        <v>451.3556798355993</v>
+        <v>2016.44840158688</v>
       </c>
       <c r="R4">
-        <v>451.3556798355993</v>
+        <v>18148.03561428192</v>
       </c>
       <c r="S4">
-        <v>0.02165269609176508</v>
+        <v>0.05649344128772815</v>
       </c>
       <c r="T4">
-        <v>0.02165269609176508</v>
+        <v>0.05649344128772816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N5">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q5">
-        <v>768.8668177822261</v>
+        <v>3363.321563380315</v>
       </c>
       <c r="R5">
-        <v>768.8668177822261</v>
+        <v>30269.89407042284</v>
       </c>
       <c r="S5">
-        <v>0.03688452429920656</v>
+        <v>0.09422785582960992</v>
       </c>
       <c r="T5">
-        <v>0.03688452429920656</v>
+        <v>0.09422785582960992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N6">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q6">
-        <v>185.205312824665</v>
+        <v>397.8519676802439</v>
       </c>
       <c r="R6">
-        <v>185.205312824665</v>
+        <v>3580.667709122195</v>
       </c>
       <c r="S6">
-        <v>0.00888477653506746</v>
+        <v>0.01114634362062678</v>
       </c>
       <c r="T6">
-        <v>0.00888477653506746</v>
+        <v>0.01114634362062678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N7">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q7">
-        <v>1445.466610825068</v>
+        <v>1465.187128904536</v>
       </c>
       <c r="R7">
-        <v>1445.466610825068</v>
+        <v>13186.68416014083</v>
       </c>
       <c r="S7">
-        <v>0.06934276144788706</v>
+        <v>0.04104913519094431</v>
       </c>
       <c r="T7">
-        <v>0.06934276144788706</v>
+        <v>0.04104913519094432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N8">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q8">
-        <v>2074.481889962533</v>
+        <v>2186.201074889351</v>
       </c>
       <c r="R8">
-        <v>2074.481889962533</v>
+        <v>19675.80967400416</v>
       </c>
       <c r="S8">
-        <v>0.0995182467352356</v>
+        <v>0.06124928461855729</v>
       </c>
       <c r="T8">
-        <v>0.0995182467352356</v>
+        <v>0.0612492846185573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N9">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q9">
-        <v>3533.799086926989</v>
+        <v>3646.45939428655</v>
       </c>
       <c r="R9">
-        <v>3533.799086926989</v>
+        <v>32818.13454857895</v>
       </c>
       <c r="S9">
-        <v>0.1695254565234608</v>
+        <v>0.1021603327598642</v>
       </c>
       <c r="T9">
-        <v>0.1695254565234608</v>
+        <v>0.1021603327598642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N10">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q10">
-        <v>251.7246942167856</v>
+        <v>960.793955525208</v>
       </c>
       <c r="R10">
-        <v>251.7246942167856</v>
+        <v>8647.145599726873</v>
       </c>
       <c r="S10">
-        <v>0.01207588282627536</v>
+        <v>0.02691790024150976</v>
       </c>
       <c r="T10">
-        <v>0.01207588282627536</v>
+        <v>0.02691790024150976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N11">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q11">
-        <v>1964.628525289561</v>
+        <v>3538.358614569488</v>
       </c>
       <c r="R11">
-        <v>1964.628525289561</v>
+        <v>31845.22753112539</v>
       </c>
       <c r="S11">
-        <v>0.09424829749966136</v>
+        <v>0.09913174792362568</v>
       </c>
       <c r="T11">
-        <v>0.09424829749966136</v>
+        <v>0.0991317479236257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N12">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q12">
-        <v>2819.564468452621</v>
+        <v>5279.573683055344</v>
       </c>
       <c r="R12">
-        <v>2819.564468452621</v>
+        <v>47516.1631474981</v>
       </c>
       <c r="S12">
-        <v>0.1352617797316318</v>
+        <v>0.1479141671332625</v>
       </c>
       <c r="T12">
-        <v>0.1352617797316318</v>
+        <v>0.1479141671332626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N13">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q13">
-        <v>4803.018234268417</v>
+        <v>8806.029452427922</v>
       </c>
       <c r="R13">
-        <v>4803.018234268417</v>
+        <v>79254.2650718513</v>
       </c>
       <c r="S13">
-        <v>0.2304131725731251</v>
+        <v>0.2467124412691337</v>
       </c>
       <c r="T13">
-        <v>0.2304131725731251</v>
+        <v>0.2467124412691338</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N14">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q14">
-        <v>56.08993195517463</v>
+        <v>119.6751596548178</v>
       </c>
       <c r="R14">
-        <v>56.08993195517463</v>
+        <v>1077.07643689336</v>
       </c>
       <c r="S14">
-        <v>0.002690778702232228</v>
+        <v>0.003352856239831557</v>
       </c>
       <c r="T14">
-        <v>0.002690778702232228</v>
+        <v>0.003352856239831558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N15">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q15">
-        <v>437.7634885744891</v>
+        <v>440.7330309266222</v>
       </c>
       <c r="R15">
-        <v>437.7634885744891</v>
+        <v>3966.597278339601</v>
       </c>
       <c r="S15">
-        <v>0.0210006436201862</v>
+        <v>0.01234771273424169</v>
       </c>
       <c r="T15">
-        <v>0.0210006436201862</v>
+        <v>0.01234771273424169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N16">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q16">
-        <v>628.2624740921818</v>
+        <v>657.6163596737421</v>
       </c>
       <c r="R16">
-        <v>628.2624740921818</v>
+        <v>5918.547237063679</v>
       </c>
       <c r="S16">
-        <v>0.03013937128770236</v>
+        <v>0.01842398306638614</v>
       </c>
       <c r="T16">
-        <v>0.03013937128770236</v>
+        <v>0.01842398306638614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N17">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q17">
-        <v>1070.220650293332</v>
+        <v>1096.866788746871</v>
       </c>
       <c r="R17">
-        <v>1070.220650293332</v>
+        <v>9871.80109872184</v>
       </c>
       <c r="S17">
-        <v>0.05134124489221725</v>
+        <v>0.03073015876913349</v>
       </c>
       <c r="T17">
-        <v>0.05134124489221725</v>
+        <v>0.0307301587691335</v>
       </c>
     </row>
   </sheetData>
